--- a/laredo/series_temporais/richandchaos.xlsx
+++ b/laredo/series_temporais/richandchaos.xlsx
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="richandchaos" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_ATPRand1_Dlg_Results" localSheetId="0" hidden="1">{2;#N/A;"R2C6:R21C6";#N/A;1;#N/A;20;#N/A;1;#N/A;#N/A;0;#N/A;1;#N/A;#N/A;#N/A;#N/A;#N/A}</definedName>
     <definedName name="_ATPRand1_Dlg_Types" localSheetId="0" hidden="1">{"EXCELHLP.HLP!1794";5;10;5;7;5;7;5;121;14;5;8;5;8;5;8;1;2;24}</definedName>
@@ -36,6 +35,33 @@
     <definedName name="Rank_Hired">#REF!</definedName>
     <definedName name="Salary">#REF!</definedName>
     <definedName name="Sex">#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">richandchaos!$C$24</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">richandchaos!$E$15</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="SPSS">#REF!</definedName>
     <definedName name="Weight">#REF!</definedName>
     <definedName name="Year">#REF!</definedName>
@@ -51,55 +77,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>t</t>
   </si>
   <si>
-    <r>
-      <t>RC</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RC</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-      </rPr>
-      <t>i-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RC</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-      </rPr>
-      <t>médio</t>
-    </r>
+    <t>A =</t>
+  </si>
+  <si>
+    <t>X (t)</t>
+  </si>
+  <si>
+    <t>F (t)</t>
+  </si>
+  <si>
+    <t>F(t:1)</t>
+  </si>
+  <si>
+    <t>e(t)</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>57.2</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>26.6%</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>34.20</t>
+  </si>
+  <si>
+    <t>148.7%</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>34.32</t>
+  </si>
+  <si>
+    <t>48.3%</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>19.27</t>
+  </si>
+  <si>
+    <t>50.7%</t>
+  </si>
+  <si>
+    <t>56.7</t>
+  </si>
+  <si>
+    <t>18.29</t>
+  </si>
+  <si>
+    <t>28.6%</t>
+  </si>
+  <si>
+    <t>55.7</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>14.67</t>
+  </si>
+  <si>
+    <t>35.8%</t>
+  </si>
+  <si>
+    <t>54.1</t>
+  </si>
+  <si>
+    <t>12.13</t>
+  </si>
+  <si>
+    <t>20.6%</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>12.8%</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Rci (real)</t>
+  </si>
+  <si>
+    <t>F(i) (prev)</t>
+  </si>
+  <si>
+    <t>erro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,20 +232,45 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
       <sz val="10"/>
-      <name val="MS Sans Serif"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -134,15 +278,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,160 +441,6 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>richandchaos!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCmédio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>richandchaos!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>richandchaos!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>490.78714285714284</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>490.78714285714284</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>490.78714285714284</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>490.78714285714284</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>490.78714285714284</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>490.78714285714284</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3705-4BB8-ADA4-4E52C7E7BF78}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="649768623"/>
-        <c:axId val="649769455"/>
-      </c:scatterChart>
-      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -344,7 +452,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RCi</c:v>
+                  <c:v>Rci (real)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,17 +635,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RCi-1</c:v>
+                  <c:v>F(i) (prev)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="6350" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -628,25 +735,67 @@
             <c:numRef>
               <c:f>richandchaos!$C$2:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>490.4</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>490.59</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>490.47</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>491.38</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>489.41</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>488.25</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>491.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>491.40132930099713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>491.27915478454577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>491.30243780308587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>491.10854097519064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>491.08549036202521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>491.19789965980073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490.94898761966556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>490.8855480097896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>490.98483971005192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>491.14068437682334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>490.94595580056875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>491.01393981124579</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>490.95201792137857</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>490.91550484070365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>490.87057128015579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>490.92195219487667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>490.76945689227426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>490.51534479634762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +902,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1431,16 +1580,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>225592</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115303</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>132347</xdr:rowOff>
+      <xdr:rowOff>157413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>516355</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148389</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406067</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1460,234 +1609,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0.LENEX"/>
-      <sheetName val="0.ST(2)"/>
-      <sheetName val="0.ST(3)"/>
-      <sheetName val="0.ST(4)"/>
-      <sheetName val="0.ST(5)"/>
-      <sheetName val="0.DRINK OLD"/>
-      <sheetName val="0.ST(1)"/>
-      <sheetName val="KINGS"/>
-      <sheetName val="PIBGROW"/>
-      <sheetName val="IGP-M "/>
-      <sheetName val="IGV"/>
-      <sheetName val="CASAMENTO IPIRANGA"/>
-      <sheetName val="CARTÂO"/>
-      <sheetName val="PIBMENSAL"/>
-      <sheetName val=" ITAU HOLT"/>
-      <sheetName val="FGV PREVI"/>
-      <sheetName val="EXPLAS"/>
-      <sheetName val="JAPÃO"/>
-      <sheetName val="souvenirs"/>
-      <sheetName val="Motel Nine"/>
-      <sheetName val="SEPT 11"/>
-      <sheetName val="Champagne"/>
-      <sheetName val="EMPLOY"/>
-      <sheetName val="IPCA"/>
-      <sheetName val="SERIES ECONOMICAS"/>
-      <sheetName val="AÇÔES "/>
-      <sheetName val="ST(7)"/>
-      <sheetName val="ST(8)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>491.48</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>490.7</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>490.19</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>491.51</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>489.38</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>490.88</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>492.2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>488.73</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>490.32</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>491.87</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>492.53</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>489.21</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>491.62</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>490.4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>490.59</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>490.47</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>491.38</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>489.41</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>488.25</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21">
-            <v>492.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1956,10 +1877,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1967,226 +1888,327 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>491.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <f>B2</f>
+        <v>491.48</v>
+      </c>
+      <c r="D2" s="19">
+        <f>(C2-B2)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>490.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="19">
+        <f>$C$24*B2+(1-$C$24)*C2</f>
+        <v>491.48</v>
+      </c>
+      <c r="D3" s="19">
+        <f t="shared" ref="D3:D15" si="0">(C3-B3)^2</f>
+        <v>0.60840000000004613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>490.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="19">
+        <f t="shared" ref="C4:C14" si="1">$C$24*B3+(1-$C$24)*C3</f>
+        <v>491.40132930099713</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="0"/>
+        <v>1.4673186754542096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>491.51</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="19">
+        <f t="shared" si="1"/>
+        <v>491.27915478454577</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
+        <v>5.328951349810699E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>489.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="19">
+        <f t="shared" si="1"/>
+        <v>491.30243780308587</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>3.6957671067336269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>490.88</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="19">
+        <f t="shared" si="1"/>
+        <v>491.10854097519064</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
+        <v>5.2230977341088718E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>492.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="19">
+        <f t="shared" si="1"/>
+        <v>491.08549036202521</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" si="0"/>
+        <v>1.2421317331386685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>488.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="19">
+        <f t="shared" si="1"/>
+        <v>491.19789965980073</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.090528730844448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>490.32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="19">
+        <f t="shared" si="1"/>
+        <v>490.94898761966556</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.39562542569255404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>491.87</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="19">
+        <f t="shared" si="1"/>
+        <v>490.8855480097896</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.96914572102922247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>492.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="19">
+        <f t="shared" si="1"/>
+        <v>490.98483971005192</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>2.3875203216323655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>489.21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="19">
+        <f t="shared" si="1"/>
+        <v>491.14068437682334</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>3.7275421629098244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>491.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="19">
+        <f t="shared" si="1"/>
+        <v>490.94595580056875</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.45433558278691538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>490.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="C15" s="22">
+        <f>$C$24*B14+(1-$C$24)*C14</f>
+        <v>491.01393981124579</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.37692209183254555</v>
+      </c>
+      <c r="E15" s="24">
+        <f>SUM(D2:D15)</f>
+        <v>21.520758042893625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>490.59</v>
       </c>
-      <c r="C16" s="2">
-        <f>B15</f>
-        <v>490.4</v>
-      </c>
-      <c r="D16" s="2">
-        <f>AVERAGE($B$2:$B$15)</f>
-        <v>490.78714285714284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="23">
+        <f t="shared" ref="C16:C21" si="2">$C$24*B15+(1-$C$24)*C15</f>
+        <v>490.95201792137857</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>490.47</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:C21" si="0">B16</f>
-        <v>490.59</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17:D21" si="1">AVERAGE($B$2:$B$15)</f>
-        <v>490.78714285714284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="19">
+        <f t="shared" si="2"/>
+        <v>490.91550484070365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>491.38</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>490.47</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>490.78714285714284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="19">
+        <f t="shared" si="2"/>
+        <v>490.87057128015579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>489.41</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>491.38</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>490.78714285714284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="19">
+        <f t="shared" si="2"/>
+        <v>490.92195219487667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>488.25</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>489.41</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>490.78714285714284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="19">
+        <f t="shared" si="2"/>
+        <v>490.76945689227426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>492.75</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>488.25</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>490.78714285714284</v>
+      <c r="C21" s="19">
+        <f t="shared" si="2"/>
+        <v>490.51534479634762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.10085987051649183</v>
       </c>
     </row>
   </sheetData>
@@ -2199,4 +2221,743 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>135</v>
+      </c>
+      <c r="C3" s="18">
+        <f>$B$17*B2+(1-$B$17)*C2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>140</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" ref="C4:C13" si="0">$B$17*B3+(1-$B$17)*C3</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="0"/>
+        <v>126.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>160</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
+        <v>131.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>155</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="0"/>
+        <v>136.89600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>170</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="0"/>
+        <v>140.51680000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>175</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" si="0"/>
+        <v>146.41344000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="0"/>
+        <v>152.13075200000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>190</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" si="0"/>
+        <v>157.70460160000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>195</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" si="0"/>
+        <v>164.16368128000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" si="0"/>
+        <v>170.33094502400004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11">
+        <v>47</v>
+      </c>
+      <c r="D2" s="11">
+        <v>47</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <f>J2</f>
+        <v>47</v>
+      </c>
+      <c r="J2" s="11">
+        <v>47</v>
+      </c>
+      <c r="K2" s="11">
+        <f>J2</f>
+        <v>47</v>
+      </c>
+      <c r="L2" s="20">
+        <f>ABS(I2-K2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>64</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>64</v>
+      </c>
+      <c r="J3" s="11">
+        <v>57.2</v>
+      </c>
+      <c r="K3" s="11">
+        <f>$D$19*J3+(1-$D$19)*I3</f>
+        <v>47</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L11" si="0">ABS(I3-K3)</f>
+        <v>17</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K4" s="21">
+        <f>$D$19*J4+(1-$D$19)*I4</f>
+        <v>57.250000000000028</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" si="0"/>
+        <v>34.250000000000028</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>71</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11">
+        <v>71</v>
+      </c>
+      <c r="J5" s="11">
+        <v>57.3</v>
+      </c>
+      <c r="K5" s="21">
+        <f>$D$19*J5+(1-$D$19)*I5</f>
+        <v>36.749999999999957</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="0"/>
+        <v>34.250000000000043</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>38</v>
+      </c>
+      <c r="J6" s="11">
+        <v>45.7</v>
+      </c>
+      <c r="K6" s="21">
+        <f>$D$19*J6+(1-$D$19)*I6</f>
+        <v>57.250000000000014</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>19.250000000000014</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>64</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>64</v>
+      </c>
+      <c r="J7" s="11">
+        <v>56.7</v>
+      </c>
+      <c r="K7" s="21">
+        <f>$D$19*J7+(1-$D$19)*I7</f>
+        <v>45.75</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="0"/>
+        <v>18.25</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>55</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11">
+        <v>55</v>
+      </c>
+      <c r="J8" s="11">
+        <v>55.7</v>
+      </c>
+      <c r="K8" s="21">
+        <f>$D$19*J8+(1-$D$19)*I8</f>
+        <v>56.750000000000014</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000142</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>41</v>
+      </c>
+      <c r="J9" s="11">
+        <v>46.9</v>
+      </c>
+      <c r="K9" s="21">
+        <f>$D$19*J9+(1-$D$19)*I9</f>
+        <v>55.750000000000014</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" si="0"/>
+        <v>14.750000000000014</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11">
+        <v>59</v>
+      </c>
+      <c r="J10" s="11">
+        <v>54.1</v>
+      </c>
+      <c r="K10" s="21">
+        <f>$D$19*J10+(1-$D$19)*I10</f>
+        <v>46.750000000000014</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="0"/>
+        <v>12.249999999999986</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>48</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11">
+        <v>48</v>
+      </c>
+      <c r="J11" s="11">
+        <v>50.5</v>
+      </c>
+      <c r="K11" s="21">
+        <f>$D$19*J11+(1-$D$19)*I11</f>
+        <v>54.25</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="13">
+        <v>11</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
+        <f>J11</f>
+        <v>50.5</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="13">
+        <v>12</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="13">
+        <v>13</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="17">
+        <v>2.5000000000000018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/laredo/series_temporais/richandchaos.xlsx
+++ b/laredo/series_temporais/richandchaos.xlsx
@@ -12,60 +12,70 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
-    <sheet name="richandchaos" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
+    <sheet name="richandchaos" sheetId="5" r:id="rId1"/>
+    <sheet name="richandchaos alisamento" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_ATPRand1_Dlg_Results" localSheetId="0" hidden="1">{2;#N/A;"R2C6:R21C6";#N/A;1;#N/A;20;#N/A;1;#N/A;#N/A;0;#N/A;1;#N/A;#N/A;#N/A;#N/A;#N/A}</definedName>
+    <definedName name="_ATPRand1_Dlg_Results" localSheetId="1" hidden="1">{2;#N/A;"R2C6:R21C6";#N/A;1;#N/A;20;#N/A;1;#N/A;#N/A;0;#N/A;1;#N/A;#N/A;#N/A;#N/A;#N/A}</definedName>
     <definedName name="_ATPRand1_Dlg_Types" localSheetId="0" hidden="1">{"EXCELHLP.HLP!1794";5;10;5;7;5;7;5;121;14;5;8;5;8;5;8;1;2;24}</definedName>
+    <definedName name="_ATPRand1_Dlg_Types" localSheetId="1" hidden="1">{"EXCELHLP.HLP!1794";5;10;5;7;5;7;5;121;14;5;8;5;8;5;8;1;2;24}</definedName>
     <definedName name="_ATPRand1_Range1" localSheetId="0" hidden="1">richandchaos!#REF!</definedName>
-    <definedName name="Accelerate">#REF!</definedName>
-    <definedName name="Age">#REF!</definedName>
-    <definedName name="Age_Hired">#REF!</definedName>
-    <definedName name="Cylinders">#REF!</definedName>
-    <definedName name="Degree">#REF!</definedName>
-    <definedName name="Dept">#REF!</definedName>
-    <definedName name="Engine_Disp">#REF!</definedName>
-    <definedName name="Horsepower">#REF!</definedName>
-    <definedName name="Model">#REF!</definedName>
-    <definedName name="MPG">#REF!</definedName>
-    <definedName name="MS_Hired">#REF!</definedName>
-    <definedName name="Origin">#REF!</definedName>
-    <definedName name="Rank_Hired">#REF!</definedName>
-    <definedName name="Salary">#REF!</definedName>
-    <definedName name="Sex">#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">richandchaos!$C$24</definedName>
+    <definedName name="_ATPRand1_Range1" localSheetId="1" hidden="1">'richandchaos alisamento'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">richandchaos!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'richandchaos alisamento'!$C$23</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">richandchaos!$E$15</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">richandchaos!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'richandchaos alisamento'!$E$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="SPSS">#REF!</definedName>
-    <definedName name="Weight">#REF!</definedName>
-    <definedName name="Year">#REF!</definedName>
-    <definedName name="Years">#REF!</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>t</t>
   </si>
@@ -85,130 +95,13 @@
     <t>A =</t>
   </si>
   <si>
-    <t>X (t)</t>
-  </si>
-  <si>
-    <t>F (t)</t>
-  </si>
-  <si>
-    <t>F(t:1)</t>
-  </si>
-  <si>
-    <t>e(t)</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>57.2</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>26.6%</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>34.20</t>
-  </si>
-  <si>
-    <t>148.7%</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>34.32</t>
-  </si>
-  <si>
-    <t>48.3%</t>
-  </si>
-  <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>19.27</t>
-  </si>
-  <si>
-    <t>50.7%</t>
-  </si>
-  <si>
-    <t>56.7</t>
-  </si>
-  <si>
-    <t>18.29</t>
-  </si>
-  <si>
-    <t>28.6%</t>
-  </si>
-  <si>
-    <t>55.7</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>14.67</t>
-  </si>
-  <si>
-    <t>35.8%</t>
-  </si>
-  <si>
-    <t>54.1</t>
-  </si>
-  <si>
-    <t>12.13</t>
-  </si>
-  <si>
-    <t>20.6%</t>
-  </si>
-  <si>
-    <t>50.5</t>
-  </si>
-  <si>
-    <t>6.15</t>
-  </si>
-  <si>
-    <t>12.8%</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>Rci (real)</t>
   </si>
   <si>
-    <t>F(i) (prev)</t>
+    <t>erro^2</t>
   </si>
   <si>
-    <t>erro</t>
+    <t>Fci</t>
   </si>
 </sst>
 </file>
@@ -216,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,24 +122,6 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -270,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,73 +162,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -363,48 +177,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +224,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>richandchaos!$B$1</c:f>
+              <c:f>'richandchaos alisamento'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -483,7 +259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>richandchaos!$A$2:$A$21</c:f>
+              <c:f>'richandchaos alisamento'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -552,7 +328,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>richandchaos!$B$2:$B$21</c:f>
+              <c:f>'richandchaos alisamento'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -622,7 +398,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3705-4BB8-ADA4-4E52C7E7BF78}"/>
+              <c16:uniqueId val="{00000000-0C1C-4A49-9A3C-0BAFAC663086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -631,27 +407,28 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>richandchaos!$C$1</c:f>
+              <c:f>'richandchaos alisamento'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F(i) (prev)</c:v>
+                  <c:v>Fci</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="6350" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -664,7 +441,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>richandchaos!$A$2:$A$21</c:f>
+              <c:f>'richandchaos alisamento'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -733,69 +510,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>richandchaos!$C$2:$C$21</c:f>
+              <c:f>'richandchaos alisamento'!$C$2:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0">
                   <c:v>491.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>491.48</c:v>
+                  <c:v>491.47999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.40132930099713</c:v>
+                  <c:v>491.40132934918563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>491.27915478454577</c:v>
+                  <c:v>491.2791549027101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>491.30243780308587</c:v>
+                  <c:v>491.30243789507045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>491.10854097519064</c:v>
+                  <c:v>491.10854117666617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>491.08549036202521</c:v>
+                  <c:v>491.08549055729924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>491.19789965980073</c:v>
+                  <c:v>491.19789976652481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>490.94898761966556</c:v>
+                  <c:v>490.94898786809273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>490.8855480097896</c:v>
+                  <c:v>490.88554827201943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>490.98483971005192</c:v>
+                  <c:v>490.98483988501368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>491.14068437682334</c:v>
+                  <c:v>491.14068443867814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>490.94595580056875</c:v>
+                  <c:v>490.94595597546288</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>491.01393981124579</c:v>
+                  <c:v>491.01393992685752</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>490.95201792137857</c:v>
+                  <c:v>490.95201806325906</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>490.91550484070365</c:v>
+                  <c:v>490.91550499063965</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>490.87057128015579</c:v>
+                  <c:v>490.87057144249263</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>490.92195219487667</c:v>
+                  <c:v>490.92195230936761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>490.76945689227426</c:v>
+                  <c:v>490.76945708862638</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>490.51534479634762</c:v>
+                  <c:v>490.51534512854818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,7 +580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3705-4BB8-ADA4-4E52C7E7BF78}"/>
+              <c16:uniqueId val="{00000000-F808-49FD-9462-01D0DDA5FA36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1581,20 +1358,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>115303</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>157413</xdr:rowOff>
+      <xdr:colOff>10027</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>406067</xdr:colOff>
+      <xdr:colOff>300790</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>13034</xdr:rowOff>
+      <xdr:rowOff>23060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1877,10 +1656,203 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>491.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>490.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>490.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>491.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>489.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>490.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>492.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>488.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>490.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>491.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>492.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>489.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>491.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>490.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>490.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>490.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>491.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>489.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>488.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>492.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" copies="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;F</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1893,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1913,7 +1885,7 @@
         <f>B2</f>
         <v>491.48</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="9">
         <f>(C2-B2)^2</f>
         <v>0</v>
       </c>
@@ -1925,13 +1897,13 @@
       <c r="B3" s="2">
         <v>490.7</v>
       </c>
-      <c r="C3" s="19">
-        <f>$C$24*B2+(1-$C$24)*C2</f>
-        <v>491.48</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="2">
+        <f>$C$23*B2+(1-$C$23)*C2</f>
+        <v>491.47999999999996</v>
+      </c>
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D15" si="0">(C3-B3)^2</f>
-        <v>0.60840000000004613</v>
+        <v>0.60839999999995742</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1941,13 +1913,13 @@
       <c r="B4" s="2">
         <v>490.19</v>
       </c>
-      <c r="C4" s="19">
-        <f t="shared" ref="C4:C14" si="1">$C$24*B3+(1-$C$24)*C3</f>
-        <v>491.40132930099713</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C21" si="1">$C$23*B3+(1-$C$23)*C3</f>
+        <v>491.40132934918563</v>
+      </c>
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>1.4673186754542096</v>
+        <v>1.467318792198488</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,13 +1929,13 @@
       <c r="B5" s="2">
         <v>491.51</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>491.27915478454577</v>
-      </c>
-      <c r="D5" s="19">
+        <v>491.2791549027101</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>5.328951349810699E-2</v>
+        <v>5.3289458942777292E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1973,13 +1945,13 @@
       <c r="B6" s="2">
         <v>489.38</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>491.30243780308587</v>
-      </c>
-      <c r="D6" s="19">
+        <v>491.30243789507045</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>3.6957671067336269</v>
+        <v>3.6957674604029371</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1989,13 +1961,13 @@
       <c r="B7" s="2">
         <v>490.88</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>491.10854097519064</v>
-      </c>
-      <c r="D7" s="19">
+        <v>491.10854117666617</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>5.2230977341088718E-2</v>
+        <v>5.2231069431957336E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2005,13 +1977,13 @@
       <c r="B8" s="2">
         <v>492.2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>491.08549036202521</v>
-      </c>
-      <c r="D8" s="19">
+        <v>491.08549055729924</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>1.2421317331386685</v>
+        <v>1.2421312978691379</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2021,13 +1993,13 @@
       <c r="B9" s="2">
         <v>488.73</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>491.19789965980073</v>
-      </c>
-      <c r="D9" s="19">
+        <v>491.19789976652481</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>6.090528730844448</v>
+        <v>6.0905292576131371</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2037,13 +2009,13 @@
       <c r="B10" s="2">
         <v>490.32</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>490.94898761966556</v>
-      </c>
-      <c r="D10" s="19">
+        <v>490.94898786809273</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>0.39562542569255404</v>
+        <v>0.39562573820784491</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2053,13 +2025,13 @@
       <c r="B11" s="2">
         <v>491.87</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>490.8855480097896</v>
-      </c>
-      <c r="D11" s="19">
+        <v>490.88554827201943</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0.96914572102922247</v>
+        <v>0.96914520472393018</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2069,13 +2041,13 @@
       <c r="B12" s="2">
         <v>492.53</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>490.98483971005192</v>
-      </c>
-      <c r="D12" s="19">
+        <v>490.98483988501368</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>2.3875203216323655</v>
+        <v>2.3875197809444391</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,13 +2057,13 @@
       <c r="B13" s="2">
         <v>489.21</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>491.14068437682334</v>
-      </c>
-      <c r="D13" s="19">
+        <v>491.14068443867814</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>3.7275421629098244</v>
+        <v>3.7275424017539875</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2101,33 +2073,33 @@
       <c r="B14" s="2">
         <v>491.62</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>490.94595580056875</v>
-      </c>
-      <c r="D14" s="19">
+        <v>490.94595597546288</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>0.45433558278691538</v>
+        <v>0.45433534701420386</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="8">
         <v>490.4</v>
       </c>
-      <c r="C15" s="22">
-        <f>$C$24*B14+(1-$C$24)*C14</f>
-        <v>491.01393981124579</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>491.01393992685752</v>
+      </c>
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>0.37692209183254555</v>
-      </c>
-      <c r="E15" s="24">
+        <v>0.37692223378984191</v>
+      </c>
+      <c r="E15" s="10">
         <f>SUM(D2:D15)</f>
-        <v>21.520758042893625</v>
+        <v>21.520758042892634</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2137,9 +2109,9 @@
       <c r="B16" s="6">
         <v>490.59</v>
       </c>
-      <c r="C16" s="23">
-        <f t="shared" ref="C16:C21" si="2">$C$24*B15+(1-$C$24)*C15</f>
-        <v>490.95201792137857</v>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
+        <v>490.95201806325906</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -2150,9 +2122,9 @@
       <c r="B17" s="2">
         <v>490.47</v>
       </c>
-      <c r="C17" s="19">
-        <f t="shared" si="2"/>
-        <v>490.91550484070365</v>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>490.91550499063965</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2162,9 +2134,9 @@
       <c r="B18" s="2">
         <v>491.38</v>
       </c>
-      <c r="C18" s="19">
-        <f t="shared" si="2"/>
-        <v>490.87057128015579</v>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>490.87057144249263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2174,9 +2146,9 @@
       <c r="B19" s="2">
         <v>489.41</v>
       </c>
-      <c r="C19" s="19">
-        <f t="shared" si="2"/>
-        <v>490.92195219487667</v>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>490.92195230936761</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,9 +2158,9 @@
       <c r="B20" s="2">
         <v>488.25</v>
       </c>
-      <c r="C20" s="19">
-        <f t="shared" si="2"/>
-        <v>490.76945689227426</v>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>490.76945708862638</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2198,17 +2170,17 @@
       <c r="B21" s="2">
         <v>492.75</v>
       </c>
-      <c r="C21" s="19">
-        <f t="shared" si="2"/>
-        <v>490.51534479634762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>490.51534512854818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.10085987051649183</v>
+      <c r="C23" s="4">
+        <v>0.10085980873630548</v>
       </c>
     </row>
   </sheetData>
@@ -2221,743 +2193,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>135</v>
-      </c>
-      <c r="C3" s="18">
-        <f>$B$17*B2+(1-$B$17)*C2</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>140</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="shared" ref="C4:C13" si="0">$B$17*B3+(1-$B$17)*C3</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5" s="18">
-        <f t="shared" si="0"/>
-        <v>126.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>160</v>
-      </c>
-      <c r="C6" s="18">
-        <f t="shared" si="0"/>
-        <v>131.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>155</v>
-      </c>
-      <c r="C7" s="18">
-        <f t="shared" si="0"/>
-        <v>136.89600000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>170</v>
-      </c>
-      <c r="C8" s="18">
-        <f t="shared" si="0"/>
-        <v>140.51680000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>175</v>
-      </c>
-      <c r="C9" s="18">
-        <f t="shared" si="0"/>
-        <v>146.41344000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>180</v>
-      </c>
-      <c r="C10" s="18">
-        <f t="shared" si="0"/>
-        <v>152.13075200000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>190</v>
-      </c>
-      <c r="C11" s="18">
-        <f t="shared" si="0"/>
-        <v>157.70460160000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>195</v>
-      </c>
-      <c r="C12" s="18">
-        <f t="shared" si="0"/>
-        <v>164.16368128000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-      <c r="C13" s="18">
-        <f t="shared" si="0"/>
-        <v>170.33094502400004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>47</v>
-      </c>
-      <c r="C2" s="11">
-        <v>47</v>
-      </c>
-      <c r="D2" s="11">
-        <v>47</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <f>J2</f>
-        <v>47</v>
-      </c>
-      <c r="J2" s="11">
-        <v>47</v>
-      </c>
-      <c r="K2" s="11">
-        <f>J2</f>
-        <v>47</v>
-      </c>
-      <c r="L2" s="20">
-        <f>ABS(I2-K2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>64</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10">
-        <v>2</v>
-      </c>
-      <c r="I3" s="11">
-        <v>64</v>
-      </c>
-      <c r="J3" s="11">
-        <v>57.2</v>
-      </c>
-      <c r="K3" s="11">
-        <f>$D$19*J3+(1-$D$19)*I3</f>
-        <v>47</v>
-      </c>
-      <c r="L3" s="20">
-        <f t="shared" ref="L3:L11" si="0">ABS(I3-K3)</f>
-        <v>17</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>23</v>
-      </c>
-      <c r="J4" s="11">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="K4" s="21">
-        <f>$D$19*J4+(1-$D$19)*I4</f>
-        <v>57.250000000000028</v>
-      </c>
-      <c r="L4" s="20">
-        <f t="shared" si="0"/>
-        <v>34.250000000000028</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>71</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10">
-        <v>4</v>
-      </c>
-      <c r="I5" s="11">
-        <v>71</v>
-      </c>
-      <c r="J5" s="11">
-        <v>57.3</v>
-      </c>
-      <c r="K5" s="21">
-        <f>$D$19*J5+(1-$D$19)*I5</f>
-        <v>36.749999999999957</v>
-      </c>
-      <c r="L5" s="20">
-        <f t="shared" si="0"/>
-        <v>34.250000000000043</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10">
-        <v>5</v>
-      </c>
-      <c r="I6" s="11">
-        <v>38</v>
-      </c>
-      <c r="J6" s="11">
-        <v>45.7</v>
-      </c>
-      <c r="K6" s="21">
-        <f>$D$19*J6+(1-$D$19)*I6</f>
-        <v>57.250000000000014</v>
-      </c>
-      <c r="L6" s="20">
-        <f t="shared" si="0"/>
-        <v>19.250000000000014</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>64</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10">
-        <v>6</v>
-      </c>
-      <c r="I7" s="11">
-        <v>64</v>
-      </c>
-      <c r="J7" s="11">
-        <v>56.7</v>
-      </c>
-      <c r="K7" s="21">
-        <f>$D$19*J7+(1-$D$19)*I7</f>
-        <v>45.75</v>
-      </c>
-      <c r="L7" s="20">
-        <f t="shared" si="0"/>
-        <v>18.25</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>55</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10">
-        <v>7</v>
-      </c>
-      <c r="I8" s="11">
-        <v>55</v>
-      </c>
-      <c r="J8" s="11">
-        <v>55.7</v>
-      </c>
-      <c r="K8" s="21">
-        <f>$D$19*J8+(1-$D$19)*I8</f>
-        <v>56.750000000000014</v>
-      </c>
-      <c r="L8" s="20">
-        <f t="shared" si="0"/>
-        <v>1.7500000000000142</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10">
-        <v>8</v>
-      </c>
-      <c r="I9" s="11">
-        <v>41</v>
-      </c>
-      <c r="J9" s="11">
-        <v>46.9</v>
-      </c>
-      <c r="K9" s="21">
-        <f>$D$19*J9+(1-$D$19)*I9</f>
-        <v>55.750000000000014</v>
-      </c>
-      <c r="L9" s="20">
-        <f t="shared" si="0"/>
-        <v>14.750000000000014</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>59</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10">
-        <v>9</v>
-      </c>
-      <c r="I10" s="11">
-        <v>59</v>
-      </c>
-      <c r="J10" s="11">
-        <v>54.1</v>
-      </c>
-      <c r="K10" s="21">
-        <f>$D$19*J10+(1-$D$19)*I10</f>
-        <v>46.750000000000014</v>
-      </c>
-      <c r="L10" s="20">
-        <f t="shared" si="0"/>
-        <v>12.249999999999986</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>48</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
-        <v>10</v>
-      </c>
-      <c r="I11" s="11">
-        <v>48</v>
-      </c>
-      <c r="J11" s="11">
-        <v>50.5</v>
-      </c>
-      <c r="K11" s="21">
-        <f>$D$19*J11+(1-$D$19)*I11</f>
-        <v>54.25</v>
-      </c>
-      <c r="L11" s="20">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="13">
-        <v>11</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
-        <f>J11</f>
-        <v>50.5</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13">
-        <v>12</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="13">
-        <v>13</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="17">
-        <v>2.5000000000000018</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>